--- a/03/data/MTS_03_data.xlsx
+++ b/03/data/MTS_03_data.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="List1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>t</t>
   </si>
@@ -25,12 +26,60 @@
   </si>
   <si>
     <t>konec</t>
+  </si>
+  <si>
+    <t>l[mm]</t>
+  </si>
+  <si>
+    <t>w[mm]</t>
+  </si>
+  <si>
+    <t>s[mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I [mA]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U [V]</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_V [Ohm]</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.000000"/>
@@ -47,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,12 +104,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,4 +797,305 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="4" width="9.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>6.4470000000000001</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(C2/D2)*F2/(E2/1000)</f>
+        <v>14652.272727272726</v>
+      </c>
+      <c r="L2">
+        <f>I2*F2/(E2/1000)</f>
+        <v>14634.690000000001</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.4299999999999997</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5">
+        <f>(C3/D3)*F3/(E3/1000)</f>
+        <v>14613.63636363636</v>
+      </c>
+      <c r="L3">
+        <f>(I3*F3/(E3/1000))</f>
+        <v>14596.1</v>
+      </c>
+      <c r="M3" s="3">
+        <f>K3-L3</f>
+        <v>17.536363636359965</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F4">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="2">
+        <f>(C4/D4)*F4/(E4/1000)</f>
+        <v>27091.287091287089</v>
+      </c>
+      <c r="L4">
+        <f>I4*F4/(E4/1000)</f>
+        <v>17383.575883575882</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F5">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <f>(C5/D5)*F5/(E5/1000)</f>
+        <v>18874.194265392311</v>
+      </c>
+      <c r="L5">
+        <f>I5*F5/(E5/1000)</f>
+        <v>20761.61369193154</v>
+      </c>
+      <c r="M5"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F6">
+        <v>7.4589999999999996</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.425</v>
+      </c>
+      <c r="K6" s="2">
+        <f>(C6/D6)*F6/(E6/1000)</f>
+        <v>19119.104579630894</v>
+      </c>
+      <c r="L6">
+        <f>I6*F6/(E6/1000)</f>
+        <v>19979.464285714286</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="F7">
+        <v>7.6825000000000001</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <f>(C7/D7)*F7/(E7/1000)</f>
+        <v>17460.227272727272</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25">
+      <c r="H11">
+        <v>14652.272727272726</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="H12">
+        <v>14613.63636363636</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="H13">
+        <v>17383.575883575882</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="H14">
+        <v>20761.61369193154</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="H15">
+        <v>19979.464285714286</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>